--- a/학점은행계획.xlsx
+++ b/학점은행계획.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C17CB29-BA26-4B72-B6C5-47199E970108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F327E1F2-ADAB-4D30-986E-9F26E23EEC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8310" yWindow="2115" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="8310" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>학점은행제 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,14 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인강 1년 6개월 수강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴활1급, 정처산기, 네관2급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>독학사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,11 +183,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 66점가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(전공18점+n, 교양30+n)</t>
+    <t>21년 2학기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네관2급(취득예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-19~</t>
+  </si>
+  <si>
+    <t>2021-11-16~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수검일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합격발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크관리사 2급 필기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크관리사 2급 실기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22년1학기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양+일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정처산기(보유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴활1급(보유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간강의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독학사 1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독학사 2단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/15(금) 10:00 ~
+ 1/22(금) 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4/16(금) 10:00 ~ 
+4/23(금) 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/28(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/30(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/22(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/21(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주의! 21년도 기준임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위수여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/15~1/15, 
+6/15~7/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월, 8월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +369,53 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +428,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -242,13 +455,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +524,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,16 +929,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B238A4D-7E0F-4A96-B566-1167ADC07DB2}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -682,18 +1045,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -701,7 +1064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -712,7 +1075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -723,58 +1086,339 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3">
+        <v>21</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="C35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="3">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="3">
+        <v>8</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="18">
+        <v>16</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="18">
+        <v>14</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="18">
+        <v>14</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="20">
+        <f>SUM(D34,D36,D37:D39)</f>
+        <v>55</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="8">
+        <f>SUM(F33:F36)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="20">
+        <v>33</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="3">
+        <f>SUM(D40:D41)</f>
+        <v>88</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <f>SUM(D42,F40)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="15">
+        <v>44514</v>
+      </c>
+      <c r="D45" s="15">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="16">
+        <v>44491</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="22">
+        <v>44542</v>
+      </c>
+      <c r="D47" s="22">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="25"/>
+      <c r="B48" s="16">
+        <v>44519</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <f>SUM(B32:B34)</f>
-        <v>140</v>
-      </c>
+      <c r="C50" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="27"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:C42"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
